--- a/output.xlsx
+++ b/output.xlsx
@@ -485,7 +485,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -507,71 +507,15 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6">
         <v>86</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Exact Matches" sheetId="1" r:id="rId1"/>
     <sheet name="Similarities" sheetId="2" r:id="rId2"/>
+    <sheet name="No Matches" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -60,6 +61,15 @@
   </si>
   <si>
     <t>address_similarity</t>
+  </si>
+  <si>
+    <t>Charlie Black</t>
+  </si>
+  <si>
+    <t>202 Birch St</t>
+  </si>
+  <si>
+    <t>202 Birch Street</t>
   </si>
 </sst>
 </file>
@@ -522,4 +532,50 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>